--- a/doc/forfresh_api.xlsx
+++ b/doc/forfresh_api.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\파이널프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -215,6 +207,235 @@
   <si>
     <t>response.data.data 에
 코드 번호 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 API 활용예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/shop/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/comment/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/comment/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/comment/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId,productNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcommentNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductComment
+{
+  "userId": "string",
+  "userRate": "integer",
+  "commentDetail": "string"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductComment
+{
+  "pcommentNo" : "integer",  
+  "userId": "string",
+  "userRate": "integer",
+  "commentDetail": "string"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product
+{
+  "productNo" : "integer",  
+  "categoryNo.": "integer",
+  "productName": "string",
+  "productPrice": "integer",
+  "stock" : "integer",
+  "description" : "string",
+  "imgUrl" : "string",
+  "detailImgs" : "string"
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product
+{ 
+  "categoryNo.": "integer",
+  "productName": "string",
+  "productPrice": "integer",
+  "stock" : "integer",
+  "description" : "string",
+  "imgUrl" : "string",
+  "detailImgs" : "string"
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity&lt;List&lt;ProductCommnet&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity&lt;List&lt;Product&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity&lt;Product&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/shop/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/comment/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/shop/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일회원조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환형 고민좀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user
+{
+  "password": "string",
+  "userId": "string"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user
+{
+  "userId": "string"
+  "nickName": "string",
+  "phone" : "string",
+  "addr1" : "string",
+  "addr2" : "string",
+  "addr3" : "string"
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +459,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,23 +490,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -562,7 +806,7 @@
     <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" customWidth="1"/>
+    <col min="7" max="7" width="37.296875" customWidth="1"/>
     <col min="8" max="8" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,239 +830,518 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="174" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
